--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="H2">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="I2">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="J2">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>72.65961567137209</v>
+        <v>80.12232466666666</v>
       </c>
       <c r="N2">
-        <v>72.65961567137209</v>
+        <v>240.366974</v>
       </c>
       <c r="O2">
-        <v>0.3856711879582723</v>
+        <v>0.3967606528644453</v>
       </c>
       <c r="P2">
-        <v>0.3856711879582723</v>
+        <v>0.4131107617534894</v>
       </c>
       <c r="Q2">
-        <v>1241.107912950597</v>
+        <v>1515.663065668296</v>
       </c>
       <c r="R2">
-        <v>1241.107912950597</v>
+        <v>13640.96759101466</v>
       </c>
       <c r="S2">
-        <v>0.04732507230325601</v>
+        <v>0.05186037910121413</v>
       </c>
       <c r="T2">
-        <v>0.04732507230325601</v>
+        <v>0.06686194547729436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="H3">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="I3">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="J3">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.6666093577965</v>
+        <v>97.60170866666665</v>
       </c>
       <c r="N3">
-        <v>91.6666093577965</v>
+        <v>292.805126</v>
       </c>
       <c r="O3">
-        <v>0.4865587272994262</v>
+        <v>0.4833174500662316</v>
       </c>
       <c r="P3">
-        <v>0.4865587272994262</v>
+        <v>0.5032344778246717</v>
       </c>
       <c r="Q3">
-        <v>1565.768731035789</v>
+        <v>1846.318183947149</v>
       </c>
       <c r="R3">
-        <v>1565.768731035789</v>
+        <v>16616.86365552434</v>
       </c>
       <c r="S3">
-        <v>0.05970481505534948</v>
+        <v>0.06317417315882494</v>
       </c>
       <c r="T3">
-        <v>0.05970481505534948</v>
+        <v>0.0814484620923185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="H4">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="I4">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="J4">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0835728277979724</v>
+        <v>0.1457666666666667</v>
       </c>
       <c r="N4">
-        <v>0.0835728277979724</v>
+        <v>0.4373</v>
       </c>
       <c r="O4">
-        <v>0.0004435976089338909</v>
+        <v>0.000721827256924331</v>
       </c>
       <c r="P4">
-        <v>0.0004435976089338909</v>
+        <v>0.0007515730347997015</v>
       </c>
       <c r="Q4">
-        <v>1.427517843706239</v>
+        <v>2.757448111888889</v>
       </c>
       <c r="R4">
-        <v>1.427517843706239</v>
+        <v>24.817033007</v>
       </c>
       <c r="S4">
-        <v>5.443312741998048E-05</v>
+        <v>9.434966627720222E-05</v>
       </c>
       <c r="T4">
-        <v>5.443312741998048E-05</v>
+        <v>0.0001216420387154386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="H5">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="I5">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="J5">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0531762204852637</v>
+        <v>0.09410233333333333</v>
       </c>
       <c r="N5">
-        <v>0.0531762204852637</v>
+        <v>0.282307</v>
       </c>
       <c r="O5">
-        <v>0.0002822549491376271</v>
+        <v>0.00046598876611145</v>
       </c>
       <c r="P5">
-        <v>0.0002822549491376271</v>
+        <v>0.0004851916961701333</v>
       </c>
       <c r="Q5">
-        <v>0.9083096217238786</v>
+        <v>1.780120979014445</v>
       </c>
       <c r="R5">
-        <v>0.9083096217238786</v>
+        <v>16.02108881113</v>
       </c>
       <c r="S5">
-        <v>3.463503702883632E-05</v>
+        <v>6.090914986901012E-05</v>
       </c>
       <c r="T5">
-        <v>3.463503702883632E-05</v>
+        <v>7.852823924911807E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="H6">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="I6">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="J6">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9348579100222</v>
+        <v>23.9773035</v>
       </c>
       <c r="N6">
-        <v>23.9348579100222</v>
+        <v>47.954607</v>
       </c>
       <c r="O6">
-        <v>0.12704423218423</v>
+        <v>0.1187340810462874</v>
       </c>
       <c r="P6">
-        <v>0.12704423218423</v>
+        <v>0.08241799569086897</v>
       </c>
       <c r="Q6">
-        <v>408.8342784777597</v>
+        <v>453.575373411355</v>
       </c>
       <c r="R6">
-        <v>408.8342784777597</v>
+        <v>2721.45224046813</v>
       </c>
       <c r="S6">
-        <v>0.01558938718149938</v>
+        <v>0.01551967013573423</v>
       </c>
       <c r="T6">
-        <v>0.01558938718149938</v>
+        <v>0.01333934635554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="H7">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="I7">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="J7">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>72.65961567137209</v>
+        <v>80.12232466666666</v>
       </c>
       <c r="N7">
-        <v>72.65961567137209</v>
+        <v>240.366974</v>
       </c>
       <c r="O7">
-        <v>0.3856711879582723</v>
+        <v>0.3967606528644453</v>
       </c>
       <c r="P7">
-        <v>0.3856711879582723</v>
+        <v>0.4131107617534894</v>
       </c>
       <c r="Q7">
-        <v>2085.832098645135</v>
+        <v>2468.770651115835</v>
       </c>
       <c r="R7">
-        <v>2085.832098645135</v>
+        <v>22218.93586004251</v>
       </c>
       <c r="S7">
-        <v>0.07953551327068412</v>
+        <v>0.08447219225756225</v>
       </c>
       <c r="T7">
-        <v>0.07953551327068412</v>
+        <v>0.1089073240681425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="H8">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="I8">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="J8">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.6666093577965</v>
+        <v>97.60170866666665</v>
       </c>
       <c r="N8">
-        <v>91.6666093577965</v>
+        <v>292.805126</v>
       </c>
       <c r="O8">
-        <v>0.4865587272994262</v>
+        <v>0.4833174500662316</v>
       </c>
       <c r="P8">
-        <v>0.4865587272994262</v>
+        <v>0.5032344778246717</v>
       </c>
       <c r="Q8">
-        <v>2631.463907505772</v>
+        <v>3007.354502724131</v>
       </c>
       <c r="R8">
-        <v>2631.463907505772</v>
+        <v>27066.19052451718</v>
       </c>
       <c r="S8">
-        <v>0.1003411696812511</v>
+        <v>0.1029005378146157</v>
       </c>
       <c r="T8">
-        <v>0.1003411696812511</v>
+        <v>0.1326664067672429</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="H9">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="I9">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="J9">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0835728277979724</v>
+        <v>0.1457666666666667</v>
       </c>
       <c r="N9">
-        <v>0.0835728277979724</v>
+        <v>0.4373</v>
       </c>
       <c r="O9">
-        <v>0.0004435976089338909</v>
+        <v>0.000721827256924331</v>
       </c>
       <c r="P9">
-        <v>0.0004435976089338909</v>
+        <v>0.0007515730347997015</v>
       </c>
       <c r="Q9">
-        <v>2.399116554427839</v>
+        <v>4.491438186233333</v>
       </c>
       <c r="R9">
-        <v>2.399116554427839</v>
+        <v>40.4229436761</v>
       </c>
       <c r="S9">
-        <v>9.148146040928145E-05</v>
+        <v>0.0001536803873656619</v>
       </c>
       <c r="T9">
-        <v>9.148146040928145E-05</v>
+        <v>0.0001981352596925347</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="H10">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="I10">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="J10">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0531762204852637</v>
+        <v>0.09410233333333333</v>
       </c>
       <c r="N10">
-        <v>0.0531762204852637</v>
+        <v>0.282307</v>
       </c>
       <c r="O10">
-        <v>0.0002822549491376271</v>
+        <v>0.00046598876611145</v>
       </c>
       <c r="P10">
-        <v>0.0002822549491376271</v>
+        <v>0.0004851916961701333</v>
       </c>
       <c r="Q10">
-        <v>1.52652428103188</v>
+        <v>2.899529933777667</v>
       </c>
       <c r="R10">
-        <v>1.52652428103188</v>
+        <v>26.095769403999</v>
       </c>
       <c r="S10">
-        <v>5.820837271173318E-05</v>
+        <v>9.921118023333616E-05</v>
       </c>
       <c r="T10">
-        <v>5.820837271173318E-05</v>
+        <v>0.0001279098347999552</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="H11">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="I11">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="J11">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9348579100222</v>
+        <v>23.9773035</v>
       </c>
       <c r="N11">
-        <v>23.9348579100222</v>
+        <v>47.954607</v>
       </c>
       <c r="O11">
-        <v>0.12704423218423</v>
+        <v>0.1187340810462874</v>
       </c>
       <c r="P11">
-        <v>0.12704423218423</v>
+        <v>0.08241799569086897</v>
       </c>
       <c r="Q11">
-        <v>687.0954992527551</v>
+        <v>738.8011196625164</v>
       </c>
       <c r="R11">
-        <v>687.0954992527551</v>
+        <v>4432.806717975099</v>
       </c>
       <c r="S11">
-        <v>0.02619985243996489</v>
+        <v>0.02527903926273067</v>
       </c>
       <c r="T11">
-        <v>0.02619985243996489</v>
+        <v>0.02172764352023426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="H12">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="I12">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="J12">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>72.65961567137209</v>
+        <v>80.12232466666666</v>
       </c>
       <c r="N12">
-        <v>72.65961567137209</v>
+        <v>240.366974</v>
       </c>
       <c r="O12">
-        <v>0.3856711879582723</v>
+        <v>0.3967606528644453</v>
       </c>
       <c r="P12">
-        <v>0.3856711879582723</v>
+        <v>0.4131107617534894</v>
       </c>
       <c r="Q12">
-        <v>406.2548152362698</v>
+        <v>478.6501532875108</v>
       </c>
       <c r="R12">
-        <v>406.2548152362698</v>
+        <v>4307.851379587597</v>
       </c>
       <c r="S12">
-        <v>0.01549102886540672</v>
+        <v>0.01637763627590903</v>
       </c>
       <c r="T12">
-        <v>0.01549102886540672</v>
+        <v>0.02111516812458379</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="H13">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="I13">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="J13">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.6666093577965</v>
+        <v>97.60170866666665</v>
       </c>
       <c r="N13">
-        <v>91.6666093577965</v>
+        <v>292.805126</v>
       </c>
       <c r="O13">
-        <v>0.4865587272994262</v>
+        <v>0.4833174500662316</v>
       </c>
       <c r="P13">
-        <v>0.4865587272994262</v>
+        <v>0.5032344778246717</v>
       </c>
       <c r="Q13">
-        <v>512.5268156718245</v>
+        <v>583.0718592949</v>
       </c>
       <c r="R13">
-        <v>512.5268156718245</v>
+        <v>5247.646733654101</v>
       </c>
       <c r="S13">
-        <v>0.01954331960656202</v>
+        <v>0.01995056048485976</v>
       </c>
       <c r="T13">
-        <v>0.01954331960656202</v>
+        <v>0.02572162622985777</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="H14">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="I14">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="J14">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0835728277979724</v>
+        <v>0.1457666666666667</v>
       </c>
       <c r="N14">
-        <v>0.0835728277979724</v>
+        <v>0.4373</v>
       </c>
       <c r="O14">
-        <v>0.0004435976089338909</v>
+        <v>0.000721827256924331</v>
       </c>
       <c r="P14">
-        <v>0.0004435976089338909</v>
+        <v>0.0007515730347997015</v>
       </c>
       <c r="Q14">
-        <v>0.4672728227657679</v>
+        <v>0.8708089491222222</v>
       </c>
       <c r="R14">
-        <v>0.4672728227657679</v>
+        <v>7.837280542099999</v>
       </c>
       <c r="S14">
-        <v>1.78177255112036E-05</v>
+        <v>2.979585849200323E-05</v>
       </c>
       <c r="T14">
-        <v>1.78177255112036E-05</v>
+        <v>3.841485736256135E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="H15">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="I15">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="J15">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0531762204852637</v>
+        <v>0.09410233333333333</v>
       </c>
       <c r="N15">
-        <v>0.0531762204852637</v>
+        <v>0.282307</v>
       </c>
       <c r="O15">
-        <v>0.0002822549491376271</v>
+        <v>0.00046598876611145</v>
       </c>
       <c r="P15">
-        <v>0.0002822549491376271</v>
+        <v>0.0004851916961701333</v>
       </c>
       <c r="Q15">
-        <v>0.2973191562959997</v>
+        <v>0.562166617882111</v>
       </c>
       <c r="R15">
-        <v>0.2973191562959997</v>
+        <v>5.059499560938999</v>
       </c>
       <c r="S15">
-        <v>1.133716933235874E-05</v>
+        <v>1.923526051521142E-05</v>
       </c>
       <c r="T15">
-        <v>1.133716933235874E-05</v>
+        <v>2.479941261708805E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="H16">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="I16">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="J16">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9348579100222</v>
+        <v>23.9773035</v>
       </c>
       <c r="N16">
-        <v>23.9348579100222</v>
+        <v>47.954607</v>
       </c>
       <c r="O16">
-        <v>0.12704423218423</v>
+        <v>0.1187340810462874</v>
       </c>
       <c r="P16">
-        <v>0.12704423218423</v>
+        <v>0.08241799569086897</v>
       </c>
       <c r="Q16">
-        <v>133.8247001184395</v>
+        <v>143.2402272830065</v>
       </c>
       <c r="R16">
-        <v>133.8247001184395</v>
+        <v>859.4413636980388</v>
       </c>
       <c r="S16">
-        <v>0.005102911312530488</v>
+        <v>0.004901150300291427</v>
       </c>
       <c r="T16">
-        <v>0.005102911312530488</v>
+        <v>0.004212598645741334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="H17">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="I17">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="J17">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.65961567137209</v>
+        <v>80.12232466666666</v>
       </c>
       <c r="N17">
-        <v>72.65961567137209</v>
+        <v>240.366974</v>
       </c>
       <c r="O17">
-        <v>0.3856711879582723</v>
+        <v>0.3967606528644453</v>
       </c>
       <c r="P17">
-        <v>0.3856711879582723</v>
+        <v>0.4131107617534894</v>
       </c>
       <c r="Q17">
-        <v>379.2915828089963</v>
+        <v>439.4511071675908</v>
       </c>
       <c r="R17">
-        <v>379.2915828089963</v>
+        <v>3955.059964508317</v>
       </c>
       <c r="S17">
-        <v>0.01446288545351228</v>
+        <v>0.01503639003310461</v>
       </c>
       <c r="T17">
-        <v>0.01446288545351228</v>
+        <v>0.01938594179203051</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="H18">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="I18">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="J18">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>91.6666093577965</v>
+        <v>97.60170866666665</v>
       </c>
       <c r="N18">
-        <v>91.6666093577965</v>
+        <v>292.805126</v>
       </c>
       <c r="O18">
-        <v>0.4865587272994262</v>
+        <v>0.4833174500662316</v>
       </c>
       <c r="P18">
-        <v>0.4865587272994262</v>
+        <v>0.5032344778246717</v>
       </c>
       <c r="Q18">
-        <v>478.5102843277402</v>
+        <v>535.3211993468201</v>
       </c>
       <c r="R18">
-        <v>478.5102843277402</v>
+        <v>4817.890794121381</v>
       </c>
       <c r="S18">
-        <v>0.01824622465731014</v>
+        <v>0.0183167096750502</v>
       </c>
       <c r="T18">
-        <v>0.01824622465731014</v>
+        <v>0.02361515408953046</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="H19">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="I19">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="J19">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.0835728277979724</v>
+        <v>0.1457666666666667</v>
       </c>
       <c r="N19">
-        <v>0.0835728277979724</v>
+        <v>0.4373</v>
       </c>
       <c r="O19">
-        <v>0.0004435976089338909</v>
+        <v>0.000721827256924331</v>
       </c>
       <c r="P19">
-        <v>0.0004435976089338909</v>
+        <v>0.0007515730347997015</v>
       </c>
       <c r="Q19">
-        <v>0.4362598101080494</v>
+        <v>0.7994940651222222</v>
       </c>
       <c r="R19">
-        <v>0.4362598101080494</v>
+        <v>7.195446586099999</v>
       </c>
       <c r="S19">
-        <v>1.663515866826159E-05</v>
+        <v>2.735572717022534E-05</v>
       </c>
       <c r="T19">
-        <v>1.663515866826159E-05</v>
+        <v>3.526887327563955E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="H20">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="I20">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="J20">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0531762204852637</v>
+        <v>0.09410233333333333</v>
       </c>
       <c r="N20">
-        <v>0.0531762204852637</v>
+        <v>0.282307</v>
       </c>
       <c r="O20">
-        <v>0.0002822549491376271</v>
+        <v>0.00046598876611145</v>
       </c>
       <c r="P20">
-        <v>0.0002822549491376271</v>
+        <v>0.0004851916961701333</v>
       </c>
       <c r="Q20">
-        <v>0.2775860104583866</v>
+        <v>0.516127992322111</v>
       </c>
       <c r="R20">
-        <v>0.2775860104583866</v>
+        <v>4.645151930898999</v>
       </c>
       <c r="S20">
-        <v>1.058471860362593E-05</v>
+        <v>1.765998918418661E-05</v>
       </c>
       <c r="T20">
-        <v>1.058471860362593E-05</v>
+        <v>2.276846514481128E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="H21">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="I21">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="J21">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9348579100222</v>
+        <v>23.9773035</v>
       </c>
       <c r="N21">
-        <v>23.9348579100222</v>
+        <v>47.954607</v>
       </c>
       <c r="O21">
-        <v>0.12704423218423</v>
+        <v>0.1187340810462874</v>
       </c>
       <c r="P21">
-        <v>0.12704423218423</v>
+        <v>0.08241799569086897</v>
       </c>
       <c r="Q21">
-        <v>124.9427217184909</v>
+        <v>131.5095713186665</v>
       </c>
       <c r="R21">
-        <v>124.9427217184909</v>
+        <v>789.0574279119988</v>
       </c>
       <c r="S21">
-        <v>0.004764229828360257</v>
+        <v>0.004499770680244837</v>
       </c>
       <c r="T21">
-        <v>0.004764229828360257</v>
+        <v>0.003867607951671842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="H22">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="I22">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="J22">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.65961567137209</v>
+        <v>80.12232466666666</v>
       </c>
       <c r="N22">
-        <v>72.65961567137209</v>
+        <v>240.366974</v>
       </c>
       <c r="O22">
-        <v>0.3856711879582723</v>
+        <v>0.3967606528644453</v>
       </c>
       <c r="P22">
-        <v>0.3856711879582723</v>
+        <v>0.4131107617534894</v>
       </c>
       <c r="Q22">
-        <v>6001.804808021573</v>
+        <v>6693.127798064332</v>
       </c>
       <c r="R22">
-        <v>6001.804808021573</v>
+        <v>40158.76678838599</v>
       </c>
       <c r="S22">
-        <v>0.2288566880654131</v>
+        <v>0.2290140551966554</v>
       </c>
       <c r="T22">
-        <v>0.2288566880654131</v>
+        <v>0.1968403822914382</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="H23">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="I23">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="J23">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>91.6666093577965</v>
+        <v>97.60170866666665</v>
       </c>
       <c r="N23">
-        <v>91.6666093577965</v>
+        <v>292.805126</v>
       </c>
       <c r="O23">
-        <v>0.4865587272994262</v>
+        <v>0.4833174500662316</v>
       </c>
       <c r="P23">
-        <v>0.4865587272994262</v>
+        <v>0.5032344778246717</v>
       </c>
       <c r="Q23">
-        <v>7571.814022069258</v>
+        <v>8153.292008603184</v>
       </c>
       <c r="R23">
-        <v>7571.814022069258</v>
+        <v>48919.7520516191</v>
       </c>
       <c r="S23">
-        <v>0.2887231982989534</v>
+        <v>0.2789754689328811</v>
       </c>
       <c r="T23">
-        <v>0.2887231982989534</v>
+        <v>0.239782828645722</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="H24">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="I24">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="J24">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.0835728277979724</v>
+        <v>0.1457666666666667</v>
       </c>
       <c r="N24">
-        <v>0.0835728277979724</v>
+        <v>0.4373</v>
       </c>
       <c r="O24">
-        <v>0.0004435976089338909</v>
+        <v>0.000721827256924331</v>
       </c>
       <c r="P24">
-        <v>0.0004435976089338909</v>
+        <v>0.0007515730347997015</v>
       </c>
       <c r="Q24">
-        <v>6.903254236389464</v>
+        <v>12.17681754438333</v>
       </c>
       <c r="R24">
-        <v>6.903254236389464</v>
+        <v>73.06090526630001</v>
       </c>
       <c r="S24">
-        <v>0.0002632301369251638</v>
+        <v>0.0004166456176192384</v>
       </c>
       <c r="T24">
-        <v>0.0002632301369251638</v>
+        <v>0.0003581120057535272</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="H25">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="I25">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="J25">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.0531762204852637</v>
+        <v>0.09410233333333333</v>
       </c>
       <c r="N25">
-        <v>0.0531762204852637</v>
+        <v>0.282307</v>
       </c>
       <c r="O25">
-        <v>0.0002822549491376271</v>
+        <v>0.00046598876611145</v>
       </c>
       <c r="P25">
-        <v>0.0002822549491376271</v>
+        <v>0.0004851916961701333</v>
       </c>
       <c r="Q25">
-        <v>4.392444039676051</v>
+        <v>7.860966911736167</v>
       </c>
       <c r="R25">
-        <v>4.392444039676051</v>
+        <v>47.16580147041699</v>
       </c>
       <c r="S25">
-        <v>0.0001674896514610729</v>
+        <v>0.0002689731863097057</v>
       </c>
       <c r="T25">
-        <v>0.0001674896514610729</v>
+        <v>0.0002311857443591608</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="H26">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="I26">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="J26">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9348579100222</v>
+        <v>23.9773035</v>
       </c>
       <c r="N26">
-        <v>23.9348579100222</v>
+        <v>47.954607</v>
       </c>
       <c r="O26">
-        <v>0.12704423218423</v>
+        <v>0.1187340810462874</v>
       </c>
       <c r="P26">
-        <v>0.12704423218423</v>
+        <v>0.08241799569086897</v>
       </c>
       <c r="Q26">
-        <v>1977.058975007536</v>
+        <v>2002.976788880429</v>
       </c>
       <c r="R26">
-        <v>1977.058975007536</v>
+        <v>8011.907155521717</v>
       </c>
       <c r="S26">
-        <v>0.07538785142187494</v>
+        <v>0.06853445066728624</v>
       </c>
       <c r="T26">
-        <v>0.07538785142187494</v>
+        <v>0.03927079921768153</v>
       </c>
     </row>
   </sheetData>
